--- a/test merrge1.xlsx
+++ b/test merrge1.xlsx
@@ -19,17 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
-  <si>
-    <t>cell genotype</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>cell number</t>
-  </si>
-  <si>
     <t>compartment</t>
   </si>
   <si>
@@ -46,6 +40,12 @@
   </si>
   <si>
     <t>E4</t>
+  </si>
+  <si>
+    <t>cell genotype</t>
+  </si>
+  <si>
+    <t>cell number</t>
   </si>
 </sst>
 </file>
@@ -111,11 +111,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -405,255 +402,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.3768229999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.18243500000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6.5749000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.15711900000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1.5815710000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="F2" s="5">
-        <v>2.3768229999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.41528799999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.18243500000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.22775899999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="F4" s="5">
-        <v>6.5749000000000002E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.13198699999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.15711900000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1.3954029999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1.5815710000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.41528799999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.22775899999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.33</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.13198699999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1.3954029999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
-        <v>5</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
         <v>0.23</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>0.18728500000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6">
-        <v>6</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.39471499999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test merrge1.xlsx
+++ b/test merrge1.xlsx
@@ -405,7 +405,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test merrge1.xlsx
+++ b/test merrge1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0249DAE1-E745-407A-B80D-94C3E668FF87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -21,37 +22,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
   <si>
+    <t>cell number</t>
+  </si>
+  <si>
+    <t>compartment</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>IOD</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>Rab5</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
     <t>cell genotype</t>
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>cell number</t>
-  </si>
-  <si>
-    <t>compartment</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>IOD</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>Rab5</t>
-  </si>
-  <si>
-    <t>E4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -404,39 +405,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
@@ -444,7 +445,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2" s="5">
         <v>0.6</v>
@@ -453,9 +454,9 @@
         <v>2.3768229999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -464,7 +465,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3" s="5">
         <v>0.2</v>
@@ -473,9 +474,9 @@
         <v>0.18243500000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -484,7 +485,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" s="5">
         <v>0.13</v>
@@ -493,9 +494,9 @@
         <v>6.5749000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -504,7 +505,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5" s="5">
         <v>0.2</v>
@@ -513,9 +514,9 @@
         <v>0.15711900000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -524,7 +525,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6" s="5">
         <v>0.75</v>
@@ -533,9 +534,9 @@
         <v>1.5815710000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -544,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E7" s="5">
         <v>0.7</v>
@@ -553,9 +554,9 @@
         <v>0.41528799999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -564,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8" s="5">
         <v>0.7</v>
@@ -573,9 +574,9 @@
         <v>0.22775899999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -584,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9" s="5">
         <v>0.33</v>
@@ -593,9 +594,9 @@
         <v>0.13198699999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -604,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10" s="5">
         <v>0.7</v>
@@ -613,9 +614,9 @@
         <v>1.3954029999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -624,7 +625,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11" s="5">
         <v>0.23</v>
@@ -633,9 +634,9 @@
         <v>0.18728500000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -644,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E12" s="5">
         <v>0.65</v>
